--- a/data_year/zb/文化/群众文化机构基本情况/乡镇(街道)文化站.xlsx
+++ b/data_year/zb/文化/群众文化机构基本情况/乡镇(街道)文化站.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,851 +528,627 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>99237</v>
+      </c>
+      <c r="C2" t="n">
+        <v>267796</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89842</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1375.8</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>96009</v>
+      </c>
+      <c r="M2" t="n">
+        <v>483000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>48.6</v>
+      </c>
       <c r="O2" t="n">
-        <v>42024</v>
+        <v>40118</v>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>438767</v>
+      </c>
+      <c r="R2" t="n">
+        <v>222568</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15686.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88385</v>
+      </c>
+      <c r="C3" t="n">
+        <v>236761</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95728</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1799.26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15282</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>4371.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>144137</v>
+      </c>
+      <c r="M3" t="n">
+        <v>704813.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70.28511</v>
+      </c>
       <c r="O3" t="n">
-        <v>40138</v>
+        <v>40390</v>
       </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>470417</v>
+      </c>
+      <c r="R3" t="n">
+        <v>216752</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17526.53</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>268730</v>
+      </c>
+      <c r="D4" t="n">
+        <v>102631</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1962.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17949.63</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>4933.37</v>
+      </c>
+      <c r="L4" t="n">
+        <v>202460</v>
+      </c>
+      <c r="M4" t="n">
+        <v>811821.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>77.36331</v>
+      </c>
       <c r="O4" t="n">
-        <v>39273</v>
+        <v>40575</v>
       </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>531246</v>
+      </c>
+      <c r="R4" t="n">
+        <v>247971</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20265.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>115494</v>
+      </c>
+      <c r="C5" t="n">
+        <v>282426</v>
+      </c>
+      <c r="D5" t="n">
+        <v>108434</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>2244</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15314</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>5093</v>
+      </c>
+      <c r="L5" t="n">
+        <v>255418</v>
+      </c>
+      <c r="M5" t="n">
+        <v>850800</v>
+      </c>
+      <c r="N5" t="n">
+        <v>86.23999999999999</v>
+      </c>
       <c r="O5" t="n">
-        <v>38588</v>
+        <v>40945</v>
       </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>570207</v>
+      </c>
+      <c r="R5" t="n">
+        <v>282094</v>
+      </c>
+      <c r="S5" t="n">
+        <v>22461</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>106842</v>
+      </c>
+      <c r="C6" t="n">
+        <v>324757</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114856</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2552.459</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19076.835</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>5690.382</v>
+      </c>
+      <c r="L6" t="n">
+        <v>300653</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1003105.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>104.68612</v>
+      </c>
       <c r="O6" t="n">
-        <v>38181</v>
+        <v>41110</v>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1088406</v>
+      </c>
+      <c r="R6" t="n">
+        <v>331269</v>
+      </c>
+      <c r="S6" t="n">
+        <v>24243.466</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>367600</v>
+      </c>
+      <c r="D7" t="n">
+        <v>118192</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>2743.478</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21973.534</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>6334.075</v>
+      </c>
+      <c r="L7" t="n">
+        <v>308100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1044621.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>106.64516</v>
+      </c>
       <c r="O7" t="n">
-        <v>38362</v>
+        <v>40976</v>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>749700</v>
+      </c>
+      <c r="R7" t="n">
+        <v>303000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25563.947</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>122771</v>
+      </c>
+      <c r="C8" t="n">
+        <v>393071</v>
+      </c>
+      <c r="D8" t="n">
+        <v>126539</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>2987.87</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22983.643</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>6263.138</v>
+      </c>
+      <c r="L8" t="n">
+        <v>321749</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1112606.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>113.41764</v>
+      </c>
       <c r="O8" t="n">
-        <v>36874</v>
+        <v>41175</v>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>827953</v>
+      </c>
+      <c r="R8" t="n">
+        <v>313485</v>
+      </c>
+      <c r="S8" t="n">
+        <v>26650.857</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>126000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>439000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>125591</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>3015.106</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26507.207</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>6259.219</v>
+      </c>
+      <c r="L9" t="n">
+        <v>330000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1372203.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>132.41312</v>
+      </c>
       <c r="O9" t="n">
-        <v>37384</v>
+        <v>41193</v>
       </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>862000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>326000</v>
+      </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83924</v>
+        <v>129000</v>
       </c>
       <c r="C10" t="n">
-        <v>222622</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>476000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>131079</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>3239</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27236</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>6268</v>
+      </c>
+      <c r="L10" t="n">
+        <v>332000</v>
+      </c>
       <c r="M10" t="n">
-        <v>322379.6</v>
+        <v>1700188.5</v>
       </c>
       <c r="N10" t="n">
-        <v>31.74289</v>
+        <v>168.85619</v>
       </c>
       <c r="O10" t="n">
-        <v>37938</v>
+        <v>41138</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>371570</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>11959.3</v>
-      </c>
+        <v>961000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>341000</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92159</v>
+        <v>133000</v>
       </c>
       <c r="C11" t="n">
-        <v>235728</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>522000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>136481</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1244.451</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>3398</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29165</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>6877</v>
+      </c>
       <c r="L11" t="n">
-        <v>68467</v>
+        <v>332000</v>
       </c>
       <c r="M11" t="n">
-        <v>408300</v>
+        <v>1781000</v>
       </c>
       <c r="N11" t="n">
-        <v>41.06</v>
+        <v>167.2</v>
       </c>
       <c r="O11" t="n">
-        <v>38736</v>
+        <v>40747</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>427818</v>
+        <v>1059000</v>
       </c>
       <c r="R11" t="n">
-        <v>189431</v>
-      </c>
-      <c r="S11" t="n">
-        <v>13525.488</v>
-      </c>
+        <v>351000</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99237</v>
+        <v>109308</v>
       </c>
       <c r="C12" t="n">
-        <v>267796</v>
+        <v>412871</v>
       </c>
       <c r="D12" t="n">
-        <v>89842</v>
+        <v>131116</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1375.8</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>2575.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21452.37</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>4776.52</v>
+      </c>
       <c r="L12" t="n">
-        <v>96009</v>
+        <v>325002</v>
       </c>
       <c r="M12" t="n">
-        <v>483000</v>
+        <v>1531503.1</v>
       </c>
       <c r="N12" t="n">
-        <v>48.6</v>
+        <v>150.74186</v>
       </c>
       <c r="O12" t="n">
-        <v>40118</v>
+        <v>40366</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>438767</v>
+        <v>862952</v>
       </c>
       <c r="R12" t="n">
-        <v>222568</v>
-      </c>
-      <c r="S12" t="n">
-        <v>15686.6</v>
-      </c>
+        <v>353799</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88385</v>
+        <v>130799</v>
       </c>
       <c r="C13" t="n">
-        <v>236761</v>
+        <v>511304</v>
       </c>
       <c r="D13" t="n">
-        <v>95728</v>
+        <v>135412</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1799.26</v>
+        <v>3814.64</v>
       </c>
       <c r="I13" t="n">
-        <v>15282</v>
+        <v>33870.52</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>4371.95</v>
+        <v>7911.5</v>
       </c>
       <c r="L13" t="n">
-        <v>144137</v>
+        <v>337192</v>
       </c>
       <c r="M13" t="n">
-        <v>704813.7</v>
+        <v>1786664.8</v>
       </c>
       <c r="N13" t="n">
-        <v>70.28511</v>
+        <v>168.94818</v>
       </c>
       <c r="O13" t="n">
-        <v>40390</v>
+        <v>40215</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>470417</v>
+        <v>1095302</v>
       </c>
       <c r="R13" t="n">
-        <v>216752</v>
-      </c>
-      <c r="S13" t="n">
-        <v>17526.53</v>
-      </c>
+        <v>351234</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>92844</v>
-      </c>
-      <c r="C14" t="n">
-        <v>268730</v>
-      </c>
-      <c r="D14" t="n">
-        <v>102631</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1962.63</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17949.63</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>4933.37</v>
-      </c>
-      <c r="L14" t="n">
-        <v>202460</v>
-      </c>
-      <c r="M14" t="n">
-        <v>811821.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>77.36331</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>40575</v>
+        <v>42120</v>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>531246</v>
-      </c>
-      <c r="R14" t="n">
-        <v>247971</v>
-      </c>
-      <c r="S14" t="n">
-        <v>20265.67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>115494</v>
-      </c>
-      <c r="C15" t="n">
-        <v>282426</v>
-      </c>
-      <c r="D15" t="n">
-        <v>108434</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>2244</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15314</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>5093</v>
-      </c>
-      <c r="L15" t="n">
-        <v>255418</v>
-      </c>
-      <c r="M15" t="n">
-        <v>850800</v>
-      </c>
-      <c r="N15" t="n">
-        <v>86.23999999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>40945</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>570207</v>
-      </c>
-      <c r="R15" t="n">
-        <v>282094</v>
-      </c>
-      <c r="S15" t="n">
-        <v>22461</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>106842</v>
-      </c>
-      <c r="C16" t="n">
-        <v>324757</v>
-      </c>
-      <c r="D16" t="n">
-        <v>114856</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>2552.459</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19076.835</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>5690.382</v>
-      </c>
-      <c r="L16" t="n">
-        <v>300653</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1003105.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>104.68612</v>
-      </c>
-      <c r="O16" t="n">
-        <v>41110</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1088406</v>
-      </c>
-      <c r="R16" t="n">
-        <v>331269</v>
-      </c>
-      <c r="S16" t="n">
-        <v>24243.466</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>114000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>367600</v>
-      </c>
-      <c r="D17" t="n">
-        <v>118192</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>2743.478</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21973.534</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>6334.075</v>
-      </c>
-      <c r="L17" t="n">
-        <v>308100</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1044621.8</v>
-      </c>
-      <c r="N17" t="n">
-        <v>106.64516</v>
-      </c>
-      <c r="O17" t="n">
-        <v>40976</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>749700</v>
-      </c>
-      <c r="R17" t="n">
-        <v>303000</v>
-      </c>
-      <c r="S17" t="n">
-        <v>25563.947</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>122771</v>
-      </c>
-      <c r="C18" t="n">
-        <v>393071</v>
-      </c>
-      <c r="D18" t="n">
-        <v>126539</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>2987.87</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22983.643</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>6263.138</v>
-      </c>
-      <c r="L18" t="n">
-        <v>321749</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1112606.4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>113.41764</v>
-      </c>
-      <c r="O18" t="n">
-        <v>41175</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>827953</v>
-      </c>
-      <c r="R18" t="n">
-        <v>313485</v>
-      </c>
-      <c r="S18" t="n">
-        <v>26650.857</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>126000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>439000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>125591</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>3015.106</v>
-      </c>
-      <c r="I19" t="n">
-        <v>26507.207</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>6259.219</v>
-      </c>
-      <c r="L19" t="n">
-        <v>330000</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1372203.3</v>
-      </c>
-      <c r="N19" t="n">
-        <v>132.41312</v>
-      </c>
-      <c r="O19" t="n">
-        <v>41193</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>862000</v>
-      </c>
-      <c r="R19" t="n">
-        <v>326000</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>129000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>476000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>131079</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>3239</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27236</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>6268</v>
-      </c>
-      <c r="L20" t="n">
-        <v>332000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1700188.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>168.85619</v>
-      </c>
-      <c r="O20" t="n">
-        <v>41138</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>961000</v>
-      </c>
-      <c r="R20" t="n">
-        <v>341000</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>133000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>522000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>136481</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>3398</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29165</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>6877</v>
-      </c>
-      <c r="L21" t="n">
-        <v>332000</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1781000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>167.2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>40747</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>1059000</v>
-      </c>
-      <c r="R21" t="n">
-        <v>351000</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>109308</v>
-      </c>
-      <c r="C22" t="n">
-        <v>412871</v>
-      </c>
-      <c r="D22" t="n">
-        <v>131116</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>2575.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21452.37</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4776.52</v>
-      </c>
-      <c r="L22" t="n">
-        <v>325002</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1531503.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>150.74186</v>
-      </c>
-      <c r="O22" t="n">
-        <v>40366</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>862952</v>
-      </c>
-      <c r="R22" t="n">
-        <v>353799</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
